--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_547.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_547.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32796-d240157-Reviews-Motel_6_Los_Angeles_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>13</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Los-Angeles-Norwalk.h1029881.Hotel-Information?chkin=6%2F27%2F2018&amp;chkout=6%2F28%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529085318100&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=00d172ed-ff94-4252-a9cf-108d4f83212d&amp;mctc=9&amp;exp_dp=81.99&amp;exp_ts=1529085318938&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_547.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_547.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,120 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d240157-r308628957-Motel_6_Los_Angeles_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>32796</t>
+  </si>
+  <si>
+    <t>240157</t>
+  </si>
+  <si>
+    <t>308628957</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>ok place after a long day on the road</t>
+  </si>
+  <si>
+    <t>after being on the road for many,many hours I found this place.It was clean,clean linen,comfratable bed,no fridge or microwave.and limited cable,NO WIFI. close to fast food and convienence stores. Pretty high price. at $92,00 Quiet but some questionables roaming the parking lot. Had 1 individual hit me up for some cash.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d240157-r283259110-Motel_6_Los_Angeles_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>283259110</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Great customer service!</t>
+  </si>
+  <si>
+    <t>We originally booked here for 3 nights but had a sudden change of plans. They were very accommodating and worked with us in changing our plans. The staff is helpful and outgoing, great for if you're unfamiliar with the area. Although I can't review the rooms because I did not stay there, I will definitely return if I get the chance to stay in the area again.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d240157-r242561726-Motel_6_Los_Angeles_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>242561726</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>It's ok good place to crash after a long day</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I got there a half hour before check in time didn't have room ready. Wasn't the staffs fault I was early. It's just a basic clean quiet room. And there's a 7-11 in the same parking lot that was convenient. It's not the hilton but I'd stay there again </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d240157-r167106072-Motel_6_Los_Angeles_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>167106072</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>friendly staff...will definitely return:)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the best motel 6 ever. We usually stay at the air force base but since it was completely booked, we found this little gem. Located in a quiet, safe area, we were completely satisfied with our stay. The staff is very friendly and accomodating even offering us to check out late since we arrived so late on one of our nights there. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d240157-r147721369-Motel_6_Los_Angeles_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>147721369</t>
+  </si>
+  <si>
+    <t>12/19/2012</t>
+  </si>
+  <si>
+    <t>Good Stay @ Motel 6 Norwalk, CA</t>
+  </si>
+  <si>
+    <t>The manager and staff were very friendly and went out of their way to make sure I had what I needed. The staff asked if I qualified for a discount, I did recieve a 10% discount. I asked for extra towels and received them at no extra charge. The housekeeping personnel were friendly and very efficient. The room was clean and the bed was comfortable. The motel has easy access to the 605 FWY and the overall the noise level was quiet.  The night was restful and the morning coffee was good.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d240157-r147450467-Motel_6_Los_Angeles_Norwalk-Norwalk_California.html</t>
+  </si>
+  <si>
+    <t>147450467</t>
+  </si>
+  <si>
+    <t>12/14/2012</t>
+  </si>
+  <si>
+    <t>Not bad for Motel 6</t>
+  </si>
+  <si>
+    <t>The staff here was friendly and helpful and our room was clean.  The beds were not so comfortable, but we were so tired it didn't matter much.  We only got two bath towels for the four of us, but maybe that is normal for Motel 6.  I tried to connect to the Internet via their wi-fi only to discover that there was an additional charge to use it.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +762,388 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5913</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5913</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5913</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5913</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5913</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5913</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_547.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_547.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Johnny O</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>jnzsrj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d240157-r283259110-Motel_6_Los_Angeles_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Jmiller1232022</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d240157-r242561726-Motel_6_Los_Angeles_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t xml:space="preserve">I got there a half hour before check in time didn't have room ready. Wasn't the staffs fault I was early. It's just a basic clean quiet room. And there's a 7-11 in the same parking lot that was convenient. It's not the hilton but I'd stay there again </t>
   </si>
   <si>
+    <t>drazo29</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d240157-r167106072-Motel_6_Los_Angeles_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -231,6 +243,9 @@
     <t xml:space="preserve">This is the best motel 6 ever. We usually stay at the air force base but since it was completely booked, we found this little gem. Located in a quiet, safe area, we were completely satisfied with our stay. The staff is very friendly and accomodating even offering us to check out late since we arrived so late on one of our nights there. </t>
   </si>
   <si>
+    <t>Erik N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d240157-r147721369-Motel_6_Los_Angeles_Norwalk-Norwalk_California.html</t>
   </si>
   <si>
@@ -247,6 +262,9 @@
   </si>
   <si>
     <t>December 2012</t>
+  </si>
+  <si>
+    <t>TheWhiterGlove</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32796-d240157-r147450467-Motel_6_Los_Angeles_Norwalk-Norwalk_California.html</t>
@@ -766,43 +784,47 @@
       <c r="A2" t="n">
         <v>5913</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -820,50 +842,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5913</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
@@ -881,41 +907,45 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5913</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
@@ -944,41 +974,45 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5913</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
@@ -1007,50 +1041,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5913</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1074,50 +1112,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5913</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1141,7 +1183,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
